--- a/data/input/absenteeism_data_46.xlsx
+++ b/data/input/absenteeism_data_46.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>95008</v>
+        <v>39428</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Larissa Novaes</t>
+          <t>Sophie Ribeiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>4499.62</v>
+        <v>9887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73652</v>
+        <v>27071</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vitor Gabriel Gonçalves</t>
+          <t>Nicole Caldeira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45090</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>6607.21</v>
+        <v>4879.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>38819</v>
+        <v>56760</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luna Farias</t>
+          <t>Bernardo da Mota</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,216 +552,216 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45103</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>3994.88</v>
+        <v>5659.13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>13434</v>
+        <v>20888</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stella da Rocha</t>
+          <t>Matheus da Cruz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45103</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>11835.48</v>
+        <v>11536.96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25913</v>
+        <v>34764</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maria Vitória Castro</t>
+          <t>Mirella Gonçalves</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45092</v>
+        <v>45100</v>
       </c>
       <c r="G6" t="n">
-        <v>3167.77</v>
+        <v>12497.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>47668</v>
+        <v>77365</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Heitor Caldeira</t>
+          <t>Sra. Isabel da Cruz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45100</v>
+        <v>45105</v>
       </c>
       <c r="G7" t="n">
-        <v>8854.59</v>
+        <v>12226.99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>85552</v>
+        <v>26646</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>João Guilherme Viana</t>
+          <t>Maria Eduarda Cavalcanti</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45103</v>
+        <v>45102</v>
       </c>
       <c r="G8" t="n">
-        <v>6584.79</v>
+        <v>12259.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>73747</v>
+        <v>36805</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luiz Otávio Ferreira</t>
+          <t>Pietra Gomes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45094</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>3358.3</v>
+        <v>3123.54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>96904</v>
+        <v>52440</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Heloísa Pereira</t>
+          <t>Augusto Caldeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45088</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>3153.56</v>
+        <v>9019.76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20226</v>
+        <v>75372</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lucas Castro</t>
+          <t>Theo Melo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>6500.09</v>
+        <v>4385.34</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_46.xlsx
+++ b/data/input/absenteeism_data_46.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39428</v>
+        <v>41943</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sophie Ribeiro</t>
+          <t>Sr. Yuri Cavalcanti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,22 +494,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45087</v>
+        <v>45102</v>
       </c>
       <c r="G2" t="n">
-        <v>9887</v>
+        <v>3615.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>27071</v>
+        <v>10224</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicole Caldeira</t>
+          <t>Laura Teixeira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,60 +519,60 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45085</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>4879.45</v>
+        <v>2738.03</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56760</v>
+        <v>88657</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bernardo da Mota</t>
+          <t>Vicente Jesus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>5659.13</v>
+        <v>11212.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20888</v>
+        <v>78671</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Matheus da Cruz</t>
+          <t>Diego Moreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,51 +581,51 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45082</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>11536.96</v>
+        <v>6762.71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>34764</v>
+        <v>94072</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mirella Gonçalves</t>
+          <t>Ana Luiza Monteiro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>12497.21</v>
+        <v>3455.53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>77365</v>
+        <v>877</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sra. Isabel da Cruz</t>
+          <t>Pietra Monteiro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,84 +635,84 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45105</v>
+        <v>45080</v>
       </c>
       <c r="G7" t="n">
-        <v>12226.99</v>
+        <v>7473.84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>26646</v>
+        <v>17350</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Eduarda Cavalcanti</t>
+          <t>Milena Silveira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45102</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>12259.17</v>
+        <v>9037.629999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>36805</v>
+        <v>80753</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pietra Gomes</t>
+          <t>Bianca Correia</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45094</v>
       </c>
       <c r="G9" t="n">
-        <v>3123.54</v>
+        <v>4931.86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>52440</v>
+        <v>91190</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Augusto Caldeira</t>
+          <t>Sra. Sophie Moraes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,31 +722,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45100</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>9019.76</v>
+        <v>6826.45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>75372</v>
+        <v>4202</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Theo Melo</t>
+          <t>Dr. Luiz Otávio Teixeira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>4385.34</v>
+        <v>2609.09</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_46.xlsx
+++ b/data/input/absenteeism_data_46.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>41943</v>
+        <v>18884</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Yuri Cavalcanti</t>
+          <t>Luna Teixeira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,51 +494,51 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>3615.67</v>
+        <v>10472.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10224</v>
+        <v>45900</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laura Teixeira</t>
+          <t>Srta. Larissa Duarte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>2738.03</v>
+        <v>6544.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>88657</v>
+        <v>50046</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vicente Jesus</t>
+          <t>Dr. Miguel da Rosa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,26 +548,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="G4" t="n">
-        <v>11212.27</v>
+        <v>4179.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>78671</v>
+        <v>11224</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diego Moreira</t>
+          <t>Júlia da Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45106</v>
+        <v>45082</v>
       </c>
       <c r="G5" t="n">
-        <v>6762.71</v>
+        <v>4461.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>94072</v>
+        <v>6127</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Luiza Monteiro</t>
+          <t>Ryan Oliveira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,51 +610,51 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>3455.53</v>
+        <v>10850.47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>877</v>
+        <v>99811</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pietra Monteiro</t>
+          <t>Evelyn Teixeira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45080</v>
+        <v>45091</v>
       </c>
       <c r="G7" t="n">
-        <v>7473.84</v>
+        <v>3042.87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17350</v>
+        <v>83579</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Milena Silveira</t>
+          <t>Miguel Fogaça</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,55 +664,55 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45099</v>
+        <v>45098</v>
       </c>
       <c r="G8" t="n">
-        <v>9037.629999999999</v>
+        <v>12493.51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80753</v>
+        <v>99732</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bianca Correia</t>
+          <t>Gabriela Fogaça</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45094</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>4931.86</v>
+        <v>3846.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91190</v>
+        <v>79891</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Sophie Moraes</t>
+          <t>Dr. Luiz Felipe Rocha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,31 +722,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45102</v>
       </c>
       <c r="G10" t="n">
-        <v>6826.45</v>
+        <v>9775.41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4202</v>
+        <v>49211</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr. Luiz Otávio Teixeira</t>
+          <t>Carlos Eduardo Pinto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45106</v>
       </c>
       <c r="G11" t="n">
-        <v>2609.09</v>
+        <v>8442.290000000001</v>
       </c>
     </row>
   </sheetData>
